--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_12_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1849581.372117935</v>
+        <v>-1852300.77326218</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12383593.48435851</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>342.6089798703965</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>19.77862904604092</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>26.38852247060528</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>124.0209788212426</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>136.5356205019535</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>106.0187813578506</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>253.9618267121837</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>218.6486949965329</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>128.1133248064415</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>49.77785311779762</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>244.1803941526395</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>213.6895597919039</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>66.77305926958674</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>140.4471812433829</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>112.6849016609953</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>62.84300698292365</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>245.879692121443</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1844,10 +1844,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>94.91529601901398</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>200.4929922977272</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="V22" t="n">
-        <v>81.89830436238724</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,10 +2482,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,13 +2530,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>80.33989744908955</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>245.8796921214435</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2953,22 +2953,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261737</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308918</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>825.108488495616</v>
+        <v>767.7492563713085</v>
       </c>
       <c r="C2" t="n">
-        <v>456.1459715552043</v>
+        <v>767.7492563713085</v>
       </c>
       <c r="D2" t="n">
-        <v>97.88027294845381</v>
+        <v>767.7492563713085</v>
       </c>
       <c r="E2" t="n">
-        <v>97.88027294845381</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="F2" t="n">
-        <v>97.88027294845381</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="G2" t="n">
-        <v>97.88027294845381</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>77.9018597706347</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796629</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.313418796629</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W2" t="n">
-        <v>1975.313418796629</v>
+        <v>1669.762144392295</v>
       </c>
       <c r="X2" t="n">
-        <v>1601.847660535549</v>
+        <v>1544.488428411242</v>
       </c>
       <c r="Y2" t="n">
-        <v>1211.708328559738</v>
+        <v>1154.34909643543</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>551.2876347907471</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>845.9911918222188</v>
+        <v>932.4978103100999</v>
       </c>
       <c r="M3" t="n">
-        <v>1209.253210781439</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
         <v>1843.432194560477</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1464.179281925625</v>
+        <v>1666.655394794799</v>
       </c>
       <c r="C4" t="n">
-        <v>1295.243098997718</v>
+        <v>1528.740626611008</v>
       </c>
       <c r="D4" t="n">
-        <v>1145.126459585383</v>
+        <v>1378.623987198672</v>
       </c>
       <c r="E4" t="n">
-        <v>1145.126459585383</v>
+        <v>1378.623987198672</v>
       </c>
       <c r="F4" t="n">
-        <v>1145.126459585383</v>
+        <v>1231.734039700762</v>
       </c>
       <c r="G4" t="n">
-        <v>977.1399948936613</v>
+        <v>1231.734039700762</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936613</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936613</v>
+        <v>977.1399948936612</v>
       </c>
       <c r="J4" t="n">
         <v>1002.60916787878</v>
@@ -4504,34 +4504,34 @@
         <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496681</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
         <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915737</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>2263.127174075598</v>
+        <v>2365.710580560017</v>
       </c>
       <c r="T4" t="n">
-        <v>2263.127174075598</v>
+        <v>2365.710580560017</v>
       </c>
       <c r="U4" t="n">
-        <v>2263.127174075598</v>
+        <v>2365.710580560017</v>
       </c>
       <c r="V4" t="n">
-        <v>2156.037495936355</v>
+        <v>2365.710580560017</v>
       </c>
       <c r="W4" t="n">
-        <v>1866.620325899395</v>
+        <v>2076.293410523056</v>
       </c>
       <c r="X4" t="n">
-        <v>1866.620325899395</v>
+        <v>1848.303859625039</v>
       </c>
       <c r="Y4" t="n">
-        <v>1645.827746755865</v>
+        <v>1848.303859625039</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1228.647807131574</v>
+        <v>1099.386652222404</v>
       </c>
       <c r="C5" t="n">
-        <v>859.685290191162</v>
+        <v>730.4241352819922</v>
       </c>
       <c r="D5" t="n">
-        <v>859.685290191162</v>
+        <v>730.4241352819922</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>730.4241352819922</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>723.4786345327888</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>307.7738842570776</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V5" t="n">
-        <v>2341.482060726889</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W5" t="n">
-        <v>1988.713405456775</v>
+        <v>1876.125824262337</v>
       </c>
       <c r="X5" t="n">
-        <v>1615.247647195695</v>
+        <v>1876.125824262337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1615.247647195695</v>
+        <v>1485.986492286526</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4641,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495377</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1468.399656105703</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>2102.578639884741</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>793.1323075070927</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="C7" t="n">
-        <v>624.1961245791858</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="D7" t="n">
-        <v>624.1961245791858</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="E7" t="n">
-        <v>476.2830309967927</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F7" t="n">
-        <v>329.3930834988823</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G7" t="n">
         <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U7" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V7" t="n">
-        <v>1082.549477544053</v>
+        <v>1082.549477544054</v>
       </c>
       <c r="W7" t="n">
-        <v>793.1323075070927</v>
+        <v>793.1323075070932</v>
       </c>
       <c r="X7" t="n">
-        <v>793.1323075070927</v>
+        <v>565.1427566090758</v>
       </c>
       <c r="Y7" t="n">
-        <v>793.1323075070927</v>
+        <v>514.8620968941287</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1099.386652222403</v>
+        <v>1432.831501090109</v>
       </c>
       <c r="C8" t="n">
-        <v>1099.386652222403</v>
+        <v>1063.868984149697</v>
       </c>
       <c r="D8" t="n">
-        <v>1099.386652222403</v>
+        <v>1063.868984149697</v>
       </c>
       <c r="E8" t="n">
-        <v>713.5983996241582</v>
+        <v>678.080731551453</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>267.0948267618455</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="V8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="W8" t="n">
-        <v>1876.125824262336</v>
+        <v>2209.570673130042</v>
       </c>
       <c r="X8" t="n">
-        <v>1876.125824262336</v>
+        <v>2209.570673130042</v>
       </c>
       <c r="Y8" t="n">
-        <v>1485.986492286524</v>
+        <v>1819.431341154231</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143493</v>
+        <v>614.5430248380218</v>
       </c>
       <c r="L9" t="n">
-        <v>884.908532145821</v>
+        <v>909.2465818694936</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105041</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701986</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>682.9724752679349</v>
+        <v>514.9860105762135</v>
       </c>
       <c r="C10" t="n">
-        <v>514.036292340028</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312206</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L10" t="n">
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4981,31 +4981,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1568.998585458753</v>
       </c>
       <c r="U10" t="n">
-        <v>1114.255484944676</v>
+        <v>1279.880247962591</v>
       </c>
       <c r="V10" t="n">
-        <v>1114.255484944676</v>
+        <v>1025.195759756704</v>
       </c>
       <c r="W10" t="n">
-        <v>824.8383149077156</v>
+        <v>735.7785897197436</v>
       </c>
       <c r="X10" t="n">
-        <v>682.9724752679349</v>
+        <v>735.7785897197436</v>
       </c>
       <c r="Y10" t="n">
-        <v>682.9724752679349</v>
+        <v>514.9860105762135</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,10 +5112,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5127,13 +5127,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.6461798836018</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C13" t="n">
-        <v>734.6461798836018</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D13" t="n">
-        <v>584.529540471266</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>436.6164468888729</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>289.7264993909625</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
         <v>175.9033664000582</v>
@@ -5194,55 +5194,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2383.485298749019</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2200.630464403924</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1981.028999426865</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1691.953772771063</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1437.269284565176</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1437.269284565176</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1209.279733667159</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138415</v>
+        <v>988.4871545236284</v>
       </c>
     </row>
     <row r="14">
@@ -5270,58 +5270,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5364,19 +5364,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>923.0670414349511</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>788.0191461778176</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C19" t="n">
         <v>788.0191461778176</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X19" t="n">
-        <v>1008.811725321348</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y19" t="n">
-        <v>788.0191461778176</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="20">
@@ -5738,34 +5738,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,22 +5829,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>868.6673633290469</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>699.73118040114</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1788.515128237795</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1499.097958200834</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1271.108407302817</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>1050.315828159287</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>721.7774158311365</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C25" t="n">
-        <v>552.8412329032296</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1896.309668945771</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V25" t="n">
-        <v>1641.625180739884</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="W25" t="n">
-        <v>1352.208010702924</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>1124.218459804906</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>903.4258806613763</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,19 +6236,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G28" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384023</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6503,7 +6503,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319335</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656828</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6619,28 +6619,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311326</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N31" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R31" t="n">
         <v>2596.781734931274</v>
@@ -6652,19 +6652,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838287</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582391</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400517</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,13 +6859,13 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
@@ -6889,16 +6889,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345472</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979285</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7184,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
         <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,7 +7330,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
@@ -7342,40 +7342,40 @@
         <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
         <v>656.9646031150023</v>
@@ -7558,43 +7558,43 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>129.4330134067486</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>162.0073097921335</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>319.4183821282434</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>73.66059580999763</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780638</v>
+        <v>193.3273467878338</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154984</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9404,10 +9404,10 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>-4.321857195429865e-13</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-7.330455780179859e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22547,13 +22547,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22562,7 +22562,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>281.2399235163645</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>245.7101218572265</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986295</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>52.83923663127359</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>3.532239727198032</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>40.64330621514796</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>191.2691783702302</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>25.21666309130993</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,16 +24175,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="V22" t="n">
-        <v>170.2393389614408</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,10 +24370,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,13 +24418,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>205.8445769401546</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>40.6433062151475</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1069429.253328123</v>
+        <v>1069429.253328124</v>
       </c>
     </row>
     <row r="3">
@@ -26314,10 +26314,10 @@
         <v>81152.27790359157</v>
       </c>
       <c r="C2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="D2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="E2" t="n">
         <v>100893.3249612508</v>
@@ -26344,7 +26344,7 @@
         <v>102630.2212330355</v>
       </c>
       <c r="M2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="N2" t="n">
         <v>102630.2212330354</v>
@@ -26353,7 +26353,7 @@
         <v>102630.2212330354</v>
       </c>
       <c r="P2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245453</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,22 +26390,22 @@
         <v>187032.8958036143</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289265</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363173</v>
+        <v>19427.7179936317</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>7.673861546209082e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>36246.77703493728</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618636</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618636</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731964</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426732</v>
+        <v>8117.312426731998</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731986</v>
+        <v>8117.312426731952</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731936</v>
       </c>
       <c r="J4" t="n">
-        <v>16108.17168982544</v>
+        <v>16108.17168982539</v>
       </c>
       <c r="K4" t="n">
-        <v>16108.17168982546</v>
+        <v>16108.17168982545</v>
       </c>
       <c r="L4" t="n">
-        <v>16108.17168982546</v>
+        <v>16108.17168982545</v>
       </c>
       <c r="M4" t="n">
+        <v>16108.17168982543</v>
+      </c>
+      <c r="N4" t="n">
+        <v>16108.17168982543</v>
+      </c>
+      <c r="O4" t="n">
+        <v>16108.17168982543</v>
+      </c>
+      <c r="P4" t="n">
         <v>16108.17168982545</v>
-      </c>
-      <c r="N4" t="n">
-        <v>16108.17168982545</v>
-      </c>
-      <c r="O4" t="n">
-        <v>16108.17168982544</v>
-      </c>
-      <c r="P4" t="n">
-        <v>16108.17168982544</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1162784.05514711</v>
+        <v>-1163213.614013699</v>
       </c>
       <c r="C6" t="n">
-        <v>-124625.551468673</v>
+        <v>-124625.5514686729</v>
       </c>
       <c r="D6" t="n">
-        <v>-124625.551468673</v>
+        <v>-124625.5514686729</v>
       </c>
       <c r="E6" t="n">
-        <v>-515831.9589139343</v>
+        <v>-515866.6968393693</v>
       </c>
       <c r="F6" t="n">
-        <v>-8346.517289388314</v>
+        <v>-8381.255214823919</v>
       </c>
       <c r="G6" t="n">
-        <v>-8346.517289388343</v>
+        <v>-8381.255214824007</v>
       </c>
       <c r="H6" t="n">
-        <v>-8346.517289388328</v>
+        <v>-8381.25521482405</v>
       </c>
       <c r="I6" t="n">
-        <v>-8346.517289388328</v>
+        <v>-8381.255214823992</v>
       </c>
       <c r="J6" t="n">
         <v>-203674.9621143196</v>
       </c>
       <c r="K6" t="n">
-        <v>-16642.06631070524</v>
+        <v>-16642.0663107053</v>
       </c>
       <c r="L6" t="n">
+        <v>-16642.06631070538</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-149249.3600396319</v>
+      </c>
+      <c r="N6" t="n">
         <v>-16642.06631070541</v>
       </c>
-      <c r="M6" t="n">
-        <v>-149249.3600396321</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
+        <v>-36069.78430433711</v>
+      </c>
+      <c r="P6" t="n">
         <v>-16642.06631070544</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-36069.78430433714</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-16642.06631070541</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
+        <v>24.28464749203967</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203968</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203968</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203976</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203971</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26923,16 +26923,16 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203962</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203962</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>9.592326932761353e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241342</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.123455999609</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.123455999609</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,16 +27160,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203962</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.123455999609</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>39.32139020186531</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>39.32139020186521</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>30.7112005966743</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,16 +27546,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>146.1188619659774</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>47.05672585022165</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>109.103563473602</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>38.19327523836265</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>168.8068002342972</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>162.695651589072</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>197.8581429810501</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>153.9756367276252</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>85.26247414565427</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28102,10 +28102,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28564,10 +28564,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="29">
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31628,10 +31628,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31674,22 +31674,22 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31698,22 +31698,22 @@
         <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N12" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O15" t="n">
-        <v>333.9544784328825</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,7 +32312,7 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32321,19 +32321,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>755.4040473746018</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>746.4857620875795</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33026,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>167.1165249313363</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>340.4395077511227</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>746.4857620875795</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>316.0205096502334</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>528.938642074174</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000387</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>617.0987427660937</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000387</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>323.3401249335299</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939913</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,28 +35252,28 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215487</v>
+        <v>379.9148430313188</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235324</v>
       </c>
       <c r="Q9" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35337,7 +35337,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35346,10 +35346,10 @@
         <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998936</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35732,13 +35732,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O15" t="n">
-        <v>191.358233988438</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35969,19 +35969,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>624.0623352912685</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>615.1440500042462</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>27.13475084531481</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,22 +36914,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,19 +36996,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>615.1440500042462</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,19 +37388,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,19 +37707,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,13 +37938,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
